--- a/gd/副本内容设计/新怪物美术需求.xlsx
+++ b/gd/副本内容设计/新怪物美术需求.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="xg1——新增" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -443,10 +443,6 @@
     <t>己方群体提升速度，持续3回合</t>
   </si>
   <si>
-    <t>群体治疗几率附加法术减免护盾（自动）（复用xgXXX3动作，大招特效需换色）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>xgXXX4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -725,6 +721,10 @@
   </si>
   <si>
     <t>需要单做一个比较绚的命中特效（用作新手）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体光属性物理伤害（自动）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -934,18 +934,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -956,6 +944,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1304,18 +1304,18 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1334,16 +1334,16 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
@@ -1362,16 +1362,16 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="7" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="12"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="12"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="12"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="24"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="12"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="24"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="12"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="12"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="24"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="13"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -1587,18 +1587,18 @@
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="19"/>
       <c r="H13" s="8"/>
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -1609,14 +1609,14 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="26"/>
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
@@ -1716,25 +1716,25 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -1748,16 +1748,16 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="21"/>
       <c r="H3" s="8"/>
       <c r="I3" s="18"/>
@@ -1766,9 +1766,9 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
@@ -2025,25 +2025,25 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -2057,16 +2057,16 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="21"/>
       <c r="H3" s="8"/>
       <c r="I3" s="18"/>
@@ -2075,9 +2075,9 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
@@ -2334,25 +2334,25 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -2366,16 +2366,16 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="21"/>
       <c r="H3" s="8"/>
       <c r="I3" s="18"/>
@@ -2384,9 +2384,9 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
@@ -2643,18 +2643,18 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -2673,16 +2673,16 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
@@ -2701,16 +2701,16 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="7" t="s">
         <v>28</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="12"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="12"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="12"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="24"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="12"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="24"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="12"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="12"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="24"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="13"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -2926,7 +2926,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="21" t="s">
         <v>60</v>
       </c>
@@ -2940,12 +2940,12 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -2956,17 +2956,17 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="21" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
@@ -3003,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3066,18 +3066,18 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -3096,16 +3096,16 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
@@ -3124,16 +3124,16 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="7" t="s">
         <v>28</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="12"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="12"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="12"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="24"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="12"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="24"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="12"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="12"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="24"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="13"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -3349,38 +3349,44 @@
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="21"/>
       <c r="H13" s="8"/>
       <c r="I13" s="18"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>69</v>
+        <v>100</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
@@ -3480,18 +3486,18 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -3510,16 +3516,16 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
@@ -3538,16 +3544,16 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="7" t="s">
         <v>28</v>
       </c>
@@ -3573,7 +3579,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="12"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
@@ -3597,7 +3603,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="12"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
@@ -3621,7 +3627,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="12"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="24"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
@@ -3643,7 +3649,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="12"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="24"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
@@ -3665,7 +3671,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="12"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
@@ -3689,7 +3695,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="12"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="24"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
@@ -3713,7 +3719,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
@@ -3737,14 +3743,14 @@
       <c r="C12" s="10"/>
       <c r="D12" s="13"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -3763,26 +3769,26 @@
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="21"/>
       <c r="H13" s="8"/>
       <c r="I13" s="18"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>64</v>
@@ -3792,15 +3798,15 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
@@ -3837,8 +3843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3900,18 +3906,18 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -3930,21 +3936,21 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>23</v>
@@ -3958,21 +3964,21 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -3992,17 +3998,17 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -4020,8 +4026,8 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="24"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
@@ -4044,13 +4050,13 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>39</v>
@@ -4067,12 +4073,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="15"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="24"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>42</v>
@@ -4089,7 +4095,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="15"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
@@ -4113,12 +4119,12 @@
       <c r="C10" s="10"/>
       <c r="D10" s="15"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="24"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -4137,12 +4143,12 @@
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -4159,27 +4165,30 @@
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13">
+        <f>600*1.8*1.5*1.25</f>
+        <v>2025</v>
+      </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="28" t="s">
-        <v>98</v>
+      <c r="H12" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" s="10"/>
     </row>
@@ -4189,7 +4198,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="19"/>
       <c r="H13" s="8"/>
       <c r="I13" s="18"/>
@@ -4197,14 +4206,14 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="28"/>
       <c r="H15" s="20"/>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.15">
@@ -4225,12 +4234,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4304,25 +4313,25 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -4336,16 +4345,16 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="21"/>
       <c r="H3" s="8"/>
       <c r="I3" s="18"/>
@@ -4354,9 +4363,9 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
@@ -4613,25 +4622,25 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -4645,16 +4654,16 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="21"/>
       <c r="H3" s="8"/>
       <c r="I3" s="18"/>
@@ -4663,9 +4672,9 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
@@ -4922,25 +4931,25 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -4954,16 +4963,16 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="21"/>
       <c r="H3" s="8"/>
       <c r="I3" s="18"/>
@@ -4972,9 +4981,9 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
@@ -5231,25 +5240,25 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -5263,16 +5272,16 @@
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="21"/>
       <c r="H3" s="8"/>
       <c r="I3" s="18"/>
@@ -5281,9 +5290,9 @@
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>

--- a/gd/副本内容设计/新怪物美术需求.xlsx
+++ b/gd/副本内容设计/新怪物美术需求.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/副本内容设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="1880" yWindow="1340" windowWidth="28800" windowHeight="17440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="xg1——新增" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
     <sheet name="xgPiying1——换色" sheetId="10" r:id="rId11"/>
     <sheet name="xgLongnv1——换色" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -572,35 +575,6 @@
   </si>
   <si>
     <r>
-      <t>皇冠，挂接点名：wp_crown</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mesh名称：mesh_crown</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1.5秒倒地，</t>
     </r>
     <r>
@@ -727,6 +701,37 @@
     <t>群体光属性物理伤害（自动）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>皇冠，挂接点名：wp_crown</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mesh名称：mesh_crown</t>
+    </r>
+  </si>
+  <si>
+    <t>武器， 挂点名：wp_weapon, mesh名称：mesh_weapon</t>
+  </si>
 </sst>
 </file>
 
@@ -736,7 +741,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -744,7 +749,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -759,7 +764,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -960,8 +965,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -977,7 +982,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1241,23 +1246,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -1303,7 +1308,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1338,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1361,7 +1366,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -1391,7 +1396,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1415,7 +1420,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1439,7 +1444,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1461,7 +1466,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1483,7 +1488,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1507,7 +1512,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1531,7 +1536,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1555,7 +1560,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1581,7 +1586,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1592,7 +1597,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>59</v>
       </c>
@@ -1608,27 +1613,27 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
       <c r="F15" s="26"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -1657,19 +1662,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -1715,7 +1720,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>79</v>
       </c>
@@ -1747,7 +1752,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1765,7 +1770,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -1785,7 +1790,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1801,7 +1806,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1817,7 +1822,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1831,7 +1836,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1845,7 +1850,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1861,7 +1866,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1877,7 +1882,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1893,7 +1898,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1902,14 +1907,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -1919,7 +1924,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -1927,20 +1932,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -1966,19 +1971,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -2024,7 +2029,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>82</v>
       </c>
@@ -2056,7 +2061,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -2074,7 +2079,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -2094,7 +2099,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2110,7 +2115,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2126,7 +2131,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2140,7 +2145,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2154,7 +2159,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2170,7 +2175,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2186,7 +2191,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2202,7 +2207,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2211,14 +2216,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -2228,7 +2233,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -2236,20 +2241,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2275,19 +2280,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -2333,7 +2338,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>84</v>
       </c>
@@ -2365,7 +2370,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -2383,7 +2388,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -2403,7 +2408,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2419,7 +2424,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2435,7 +2440,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2449,7 +2454,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2463,7 +2468,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2479,7 +2484,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2495,7 +2500,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2511,7 +2516,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2520,14 +2525,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -2537,7 +2542,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -2545,20 +2550,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2584,19 +2589,19 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -2642,7 +2647,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>62</v>
       </c>
@@ -2672,7 +2677,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -2700,7 +2705,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -2730,7 +2735,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2754,7 +2759,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2778,7 +2783,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2800,7 +2805,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2822,7 +2827,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2846,7 +2851,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2870,7 +2875,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2894,7 +2899,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2920,7 +2925,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2939,7 +2944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>59</v>
       </c>
@@ -2955,7 +2960,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -2965,20 +2970,20 @@
       </c>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -3003,23 +3008,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -3065,7 +3070,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
@@ -3095,7 +3100,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -3123,7 +3128,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -3153,7 +3158,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3177,7 +3182,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3201,7 +3206,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3223,7 +3228,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3245,7 +3250,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3269,7 +3274,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3293,7 +3298,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3317,7 +3322,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3343,7 +3348,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3355,7 +3360,7 @@
       <c r="I13" s="18"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>67</v>
       </c>
@@ -3368,7 +3373,7 @@
         <v>53</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>54</v>
@@ -3377,7 +3382,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -3385,20 +3390,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -3427,19 +3432,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -3485,7 +3490,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>69</v>
       </c>
@@ -3515,7 +3520,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -3543,7 +3548,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -3573,7 +3578,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3597,7 +3602,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3621,7 +3626,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3643,7 +3648,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3665,7 +3670,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3689,7 +3694,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3713,7 +3718,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3737,7 +3742,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3763,7 +3768,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3775,7 +3780,7 @@
       <c r="I13" s="18"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>67</v>
       </c>
@@ -3797,7 +3802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -3805,20 +3810,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -3843,23 +3848,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="53.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="53.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -3905,7 +3910,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>86</v>
       </c>
@@ -3935,7 +3940,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -3963,7 +3968,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -3993,7 +3998,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4001,14 +4006,14 @@
         <v>90</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -4021,12 +4026,14 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="F6" s="29"/>
       <c r="G6" s="7" t="s">
         <v>34</v>
@@ -4045,7 +4052,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4056,7 +4063,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>39</v>
@@ -4067,7 +4074,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4078,7 +4085,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>42</v>
@@ -4089,7 +4096,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4113,7 +4120,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4124,7 +4131,7 @@
         <v>46</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -4137,7 +4144,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4148,7 +4155,7 @@
         <v>49</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -4161,7 +4168,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4177,22 +4184,22 @@
         <v>53</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4203,30 +4210,30 @@
       <c r="H13" s="8"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
       <c r="F14" s="28"/>
       <c r="G14" s="25"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
       <c r="F15" s="28"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -4254,19 +4261,19 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -4312,7 +4319,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>72</v>
       </c>
@@ -4344,7 +4351,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -4362,7 +4369,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -4382,7 +4389,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4398,7 +4405,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4414,7 +4421,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4428,7 +4435,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4442,7 +4449,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4458,7 +4465,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4474,7 +4481,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4490,7 +4497,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4499,14 +4506,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -4516,7 +4523,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -4524,20 +4531,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -4563,19 +4570,19 @@
       <selection activeCell="H24" sqref="H24:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -4621,7 +4628,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>73</v>
       </c>
@@ -4653,7 +4660,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -4671,7 +4678,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -4691,7 +4698,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4707,7 +4714,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4723,7 +4730,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4737,7 +4744,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4751,7 +4758,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4767,7 +4774,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4783,7 +4790,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4799,7 +4806,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4808,14 +4815,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -4825,7 +4832,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -4833,20 +4840,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -4872,19 +4879,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -4930,7 +4937,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>76</v>
       </c>
@@ -4962,7 +4969,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -4980,7 +4987,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -5000,7 +5007,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5016,7 +5023,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -5032,7 +5039,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5046,7 +5053,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -5060,7 +5067,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5076,7 +5083,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5092,7 +5099,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5108,7 +5115,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5117,14 +5124,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -5134,7 +5141,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -5142,20 +5149,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -5181,19 +5188,19 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -5239,7 +5246,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>78</v>
       </c>
@@ -5271,7 +5278,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -5289,7 +5296,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -5309,7 +5316,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5325,7 +5332,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -5341,7 +5348,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5355,7 +5362,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -5369,7 +5376,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5385,7 +5392,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5401,7 +5408,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5417,7 +5424,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5426,14 +5433,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -5443,7 +5450,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -5451,20 +5458,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>

--- a/gd/副本内容设计/新怪物美术需求.xlsx
+++ b/gd/副本内容设计/新怪物美术需求.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/副本内容设计/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1340" windowWidth="28800" windowHeight="17440" activeTab="4"/>
+    <workbookView xWindow="1875" yWindow="1335" windowWidth="28800" windowHeight="17445" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="xg1——新增" sheetId="1" r:id="rId1"/>
-    <sheet name="xg2——新增" sheetId="2" r:id="rId2"/>
-    <sheet name="xg3——新增" sheetId="3" r:id="rId3"/>
-    <sheet name="xg4——新增" sheetId="4" r:id="rId4"/>
+    <sheet name="xgMoguguai3——新增" sheetId="1" r:id="rId1"/>
+    <sheet name="xgSaibulesi5——新增" sheetId="2" r:id="rId2"/>
+    <sheet name="xgSheshou3——新增" sheetId="3" r:id="rId3"/>
+    <sheet name="xgTianshizhang4——新增" sheetId="4" r:id="rId4"/>
     <sheet name="xgBingxuenvwang3——新增" sheetId="12" r:id="rId5"/>
     <sheet name="xgWendige2——换色" sheetId="5" r:id="rId6"/>
     <sheet name="xgXiaochou2——换色" sheetId="6" r:id="rId7"/>
@@ -25,20 +25,20 @@
     <sheet name="xgPiying1——换色" sheetId="10" r:id="rId11"/>
     <sheet name="xgLongnv1——换色" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -398,21 +398,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xgXXX3</t>
-  </si>
-  <si>
-    <t>xgXXX3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>群体水属性伤害</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xgXXX4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>大招</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -421,10 +410,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xgXXX5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>单体暗法术纯伤害（手动，点到爽型）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -440,14 +425,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xgXXX1</t>
-  </si>
-  <si>
     <t>己方群体提升速度，持续3回合</t>
-  </si>
-  <si>
-    <t>xgXXX4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>群体治疗几率附加物理、法术吸收护盾（自动）</t>
@@ -732,6 +710,38 @@
   <si>
     <t>武器， 挂点名：wp_weapon, mesh名称：mesh_weapon</t>
   </si>
+  <si>
+    <t>xgMoguguai3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgMoguguai4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSaibulesi5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSaibulesi4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSheshou3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgSheshou1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgTianshizhang4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgTianshizhang1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -741,7 +751,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -749,7 +759,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -764,7 +774,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -965,8 +975,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,23 +1256,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -1308,9 +1318,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1338,7 +1348,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1366,7 +1376,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -1396,7 +1406,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1420,7 +1430,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1444,7 +1454,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1466,7 +1476,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1488,7 +1498,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1512,7 +1522,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1536,7 +1546,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1560,7 +1570,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1573,7 +1583,7 @@
         <v>53</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -1586,7 +1596,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1597,43 +1607,43 @@
       <c r="H13" s="8"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
       <c r="F14" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
       <c r="F15" s="26"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -1662,25 +1672,25 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1720,9 +1730,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1739,12 +1749,12 @@
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>55</v>
@@ -1752,7 +1762,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1770,7 +1780,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -1790,7 +1800,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1806,7 +1816,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1822,7 +1832,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1836,7 +1846,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1850,7 +1860,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1866,7 +1876,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1882,7 +1892,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1898,7 +1908,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1907,14 +1917,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -1924,7 +1934,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -1932,20 +1942,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -1971,25 +1981,25 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,9 +2039,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2048,12 +2058,12 @@
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>55</v>
@@ -2061,7 +2071,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -2079,7 +2089,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -2099,7 +2109,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2115,7 +2125,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2131,7 +2141,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2145,7 +2155,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2159,7 +2169,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2175,7 +2185,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2191,7 +2201,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2207,7 +2217,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2216,14 +2226,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -2233,7 +2243,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -2241,20 +2251,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2276,29 +2286,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2338,9 +2348,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2357,12 +2367,12 @@
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>55</v>
@@ -2370,7 +2380,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -2388,7 +2398,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -2408,7 +2418,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2424,7 +2434,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2440,7 +2450,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2454,7 +2464,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2468,7 +2478,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2484,7 +2494,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2500,7 +2510,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2516,7 +2526,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2525,14 +2535,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -2542,7 +2552,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -2550,20 +2560,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2586,22 +2596,22 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -2647,9 +2657,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2677,7 +2687,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -2705,7 +2715,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -2735,7 +2745,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2759,7 +2769,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2783,7 +2793,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2805,7 +2815,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2827,7 +2837,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2851,7 +2861,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2875,7 +2885,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2899,7 +2909,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2912,12 +2922,12 @@
         <v>53</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>55</v>
@@ -2925,7 +2935,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2933,57 +2943,57 @@
       <c r="E13" s="6"/>
       <c r="F13" s="26"/>
       <c r="G13" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="18"/>
       <c r="K13" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
       <c r="F14" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
       <c r="F15" s="26"/>
       <c r="G15" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -3009,22 +3019,22 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -3070,9 +3080,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -3100,7 +3110,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -3128,7 +3138,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -3158,7 +3168,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3182,7 +3192,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3206,7 +3216,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3228,7 +3238,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3250,7 +3260,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3274,7 +3284,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3298,7 +3308,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3322,7 +3332,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3335,12 +3345,12 @@
         <v>53</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>55</v>
@@ -3348,7 +3358,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3360,20 +3370,20 @@
       <c r="I13" s="18"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
       <c r="F14" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>54</v>
@@ -3382,7 +3392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -3390,20 +3400,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -3429,22 +3439,22 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -3490,9 +3500,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -3520,7 +3530,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -3548,7 +3558,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -3578,7 +3588,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3602,7 +3612,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3626,7 +3636,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3648,7 +3658,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3670,7 +3680,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3694,7 +3704,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3718,7 +3728,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3742,7 +3752,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3755,12 +3765,12 @@
         <v>53</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>55</v>
@@ -3768,7 +3778,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3780,29 +3790,29 @@
       <c r="I13" s="18"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
       <c r="F14" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -3810,20 +3820,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -3848,23 +3858,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="53.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="53.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
@@ -3910,9 +3920,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -3940,7 +3950,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -3955,7 +3965,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>23</v>
@@ -3968,7 +3978,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -3980,10 +3990,10 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -3998,22 +4008,22 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -4026,13 +4036,13 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="15"/>
       <c r="E6" s="23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="7" t="s">
@@ -4052,7 +4062,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4063,7 +4073,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>39</v>
@@ -4074,7 +4084,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4085,7 +4095,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>42</v>
@@ -4096,7 +4106,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4120,7 +4130,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4131,7 +4141,7 @@
         <v>46</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -4144,7 +4154,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4155,7 +4165,7 @@
         <v>49</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -4168,7 +4178,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4184,22 +4194,22 @@
         <v>53</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4210,30 +4220,30 @@
       <c r="H13" s="8"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
       <c r="F14" s="28"/>
       <c r="G14" s="25"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
       <c r="F15" s="28"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -4261,25 +4271,25 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4319,9 +4329,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -4338,12 +4348,12 @@
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>55</v>
@@ -4351,7 +4361,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -4369,7 +4379,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -4389,7 +4399,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4405,7 +4415,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4421,7 +4431,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4435,7 +4445,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4449,7 +4459,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4465,7 +4475,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4481,7 +4491,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4497,7 +4507,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4506,14 +4516,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -4523,7 +4533,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -4531,20 +4541,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -4570,25 +4580,25 @@
       <selection activeCell="H24" sqref="H24:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4628,9 +4638,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -4647,12 +4657,12 @@
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>55</v>
@@ -4660,7 +4670,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -4678,7 +4688,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -4698,7 +4708,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4714,7 +4724,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4730,7 +4740,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4744,7 +4754,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4758,7 +4768,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4774,7 +4784,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4790,7 +4800,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4806,7 +4816,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4815,14 +4825,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -4832,7 +4842,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -4840,20 +4850,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -4879,25 +4889,25 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4937,9 +4947,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -4956,12 +4966,12 @@
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>55</v>
@@ -4969,7 +4979,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -4987,7 +4997,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -5007,7 +5017,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5023,7 +5033,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -5039,7 +5049,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5053,7 +5063,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -5067,7 +5077,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5083,7 +5093,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5099,7 +5109,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5115,7 +5125,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5124,14 +5134,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -5141,7 +5151,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -5149,20 +5159,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -5188,25 +5198,25 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="25" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5246,9 +5256,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -5265,12 +5275,12 @@
         <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>55</v>
@@ -5278,7 +5288,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -5296,7 +5306,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -5316,7 +5326,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5332,7 +5342,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -5348,7 +5358,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5362,7 +5372,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -5376,7 +5386,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5392,7 +5402,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5408,7 +5418,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5424,7 +5434,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5433,14 +5443,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -5450,7 +5460,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
@@ -5458,20 +5468,20 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
       <c r="M21" s="10"/>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>

--- a/gd/副本内容设计/新怪物美术需求.xlsx
+++ b/gd/副本内容设计/新怪物美术需求.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1335" windowWidth="28800" windowHeight="17445" activeTab="11"/>
+    <workbookView xWindow="1875" yWindow="1335" windowWidth="28800" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="xgMoguguai3——新增" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -549,9 +549,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>弱点1（挂接点）+mesh</t>
-  </si>
-  <si>
     <r>
       <t>1.5秒倒地，</t>
     </r>
@@ -740,6 +737,26 @@
   </si>
   <si>
     <t>xgTianshizhang1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）+mesh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体，挂接点名：wp_body，mesh名称：mesh_body</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）+mesh</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2（挂接点）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇，挂接点名：wp_mushroom</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +990,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -989,6 +1012,299 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="790575"/>
+          <a:ext cx="2209800" cy="2338839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>368448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>722689</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111603</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="组合 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1771650" y="2254398"/>
+          <a:ext cx="322639" cy="333705"/>
+          <a:chOff x="19573875" y="179482040"/>
+          <a:chExt cx="381000" cy="443864"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="椭圆 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19573875" y="179498625"/>
+            <a:ext cx="381000" cy="427279"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="文本框 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19599004" y="179482040"/>
+            <a:ext cx="314638" cy="373047"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>789364</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44837</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="组合 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1838325" y="1187507"/>
+          <a:ext cx="322639" cy="324180"/>
+          <a:chOff x="19573875" y="179494709"/>
+          <a:chExt cx="381000" cy="431195"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="椭圆 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19573875" y="179498625"/>
+            <a:ext cx="381000" cy="427279"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="文本框 8"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19610252" y="179494709"/>
+            <a:ext cx="314638" cy="373047"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1256,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1266,7 +1582,7 @@
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="3" width="22.375" style="9" customWidth="1"/>
     <col min="4" max="4" width="31.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="9" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="9" customWidth="1"/>
     <col min="8" max="8" width="56.875" style="9" bestFit="1" customWidth="1"/>
@@ -1320,7 +1636,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1410,8 +1726,12 @@
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="F5" s="29"/>
       <c r="G5" s="7" t="s">
         <v>31</v>
@@ -1434,8 +1754,8 @@
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="29"/>
       <c r="G6" s="7" t="s">
         <v>34</v>
@@ -1458,8 +1778,8 @@
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="29"/>
       <c r="G7" s="7" t="s">
         <v>37</v>
@@ -1480,8 +1800,12 @@
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>107</v>
+      </c>
       <c r="F8" s="29"/>
       <c r="G8" s="7" t="s">
         <v>40</v>
@@ -1502,8 +1826,8 @@
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="29"/>
       <c r="G9" s="7" t="s">
         <v>43</v>
@@ -1526,8 +1850,8 @@
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="29"/>
       <c r="G10" s="7" t="s">
         <v>46</v>
@@ -1609,7 +1933,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -1650,7 +1974,7 @@
       <c r="L28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A2:A4"/>
@@ -1658,9 +1982,14 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1690,7 +2019,7 @@
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2328,7 @@
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2286,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2308,7 +2637,7 @@
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +2988,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2956,7 +3285,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -3082,7 +3411,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -3372,7 +3701,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -3383,7 +3712,7 @@
         <v>53</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>54</v>
@@ -3502,7 +3831,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -3792,7 +4121,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6"/>
@@ -3858,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4013,17 +4342,17 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="5" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -4042,7 +4371,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="15"/>
       <c r="E6" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="7" t="s">
@@ -4073,7 +4402,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>39</v>
@@ -4095,7 +4424,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>42</v>
@@ -4141,7 +4470,7 @@
         <v>46</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -4165,7 +4494,7 @@
         <v>49</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -4194,18 +4523,18 @@
         <v>53</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N12" s="10"/>
     </row>
@@ -4289,7 +4618,7 @@
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4598,7 +4927,7 @@
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4907,7 +5236,7 @@
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5216,7 +5545,7 @@
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
